--- a/biology/Zoologie/Fauvette_passerinette/Fauvette_passerinette.xlsx
+++ b/biology/Zoologie/Fauvette_passerinette/Fauvette_passerinette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca cantillans
 La Fauvette passerinette (Curruca iberiae) est une espèce de passereaux appartenant à la famille des Sylviidae.
@@ -512,7 +524,9 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fauvette passerinette a un ventre couleur ocre, une petite tache blanche en continuité de son bec, le dos de couleur gris ardoisé, l'oeil a un contour rouge et est rouge lui-même, le bec est orange et gris, les pattes sont rouges.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fauvette passerinette se nourrit essentiellement de baies et d'insectes.
 </t>
@@ -574,9 +590,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fauvette passerinette a une envergure de 16 à 20 cm, une taille de 12 à 13 cm et pèse environ 9 à 13 g[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fauvette passerinette a une envergure de 16 à 20 cm, une taille de 12 à 13 cm et pèse environ 9 à 13 g.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curruca cantillans habite généralement les haies et les forêts buissonneuses[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curruca cantillans habite généralement les haies et les forêts buissonneuses.
 </t>
         </is>
       </c>
@@ -636,11 +656,13 @@
           <t>Nidification et œufs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fauvette passerinette nidifie dans les buissons, elle pond généralement 1 à 2 fois. Elle pond 3 à 5 œufs par nichée. 
-Ceux-ci incubent pendant 11 à 12 jours, une fois les œufs éclos, les oisillons séjournent 10 à 12 jours au nid[3]jusqu'à leur envol.
+Ceux-ci incubent pendant 11 à 12 jours, une fois les œufs éclos, les oisillons séjournent 10 à 12 jours au nidjusqu'à leur envol.
 Les œufs sont blancs avec des taches noires.
 </t>
         </is>
@@ -670,7 +692,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente le pourtour du bassin méditerranéen.
 </t>
@@ -701,9 +725,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fauvette passerinette faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fauvette passerinette faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
@@ -732,9 +758,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Messiaen a consacré à cet oiseau une pièce, restée longtemps inédite[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Messiaen a consacré à cet oiseau une pièce, restée longtemps inédite.
 </t>
         </is>
       </c>
